--- a/daten/App_Produkte_mit_EAN.xlsx
+++ b/daten/App_Produkte_mit_EAN.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Violante\Documents\Persdat\Matthias Violante\Verkaufsordner\VerkaufsApp_RESTORED\daten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Violante\Documents\Persdat\Matthias Violante\Verkaufsordner\P5-app\daten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984605EC-FE50-4449-BF0B-2B676F137054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB192094-E067-4CE3-9972-7FDA40723EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{4588F5CC-6849-4CE3-B8BF-97222DB8D8ED}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="App_Produkte_mit_EAN" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">App_Produkte_mit_EAN!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">App_Produkte_mit_EAN!$A$1:$K$570</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="588">
   <si>
     <t>Produktname</t>
   </si>
@@ -1778,6 +1778,15 @@
   </si>
   <si>
     <t>XLRK3M.SYU</t>
+  </si>
+  <si>
+    <t>Cashback single</t>
+  </si>
+  <si>
+    <t>Cashback Double</t>
+  </si>
+  <si>
+    <t>aktiv Cashback</t>
   </si>
 </sst>
 </file>
@@ -2639,10 +2648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{814745D1-028E-41D3-A7E0-7F4E16DD3ABC}">
-  <dimension ref="A1:I570"/>
+  <dimension ref="A1:K579"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2650,7 +2659,7 @@
     <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2663,8 +2672,17 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>587</v>
+      </c>
+      <c r="F1" t="s">
+        <v>585</v>
+      </c>
+      <c r="G1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2674,8 +2692,14 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <v>50</v>
+      </c>
+      <c r="G2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2688,8 +2712,17 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>50</v>
+      </c>
+      <c r="G3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2702,8 +2735,17 @@
       <c r="D4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>50</v>
+      </c>
+      <c r="G4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -2713,8 +2755,14 @@
       <c r="D5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>50</v>
+      </c>
+      <c r="G5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2727,8 +2775,17 @@
       <c r="D6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>50</v>
+      </c>
+      <c r="G6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -2741,8 +2798,17 @@
       <c r="D7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <v>50</v>
+      </c>
+      <c r="G7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -2752,8 +2818,14 @@
       <c r="D8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <v>100</v>
+      </c>
+      <c r="G8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -2766,8 +2838,20 @@
       <c r="D9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
+      <c r="G9">
+        <v>200</v>
+      </c>
+      <c r="J9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -2780,11 +2864,20 @@
       <c r="D10" t="s">
         <v>5</v>
       </c>
-      <c r="I10" t="s">
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>100</v>
+      </c>
+      <c r="G10">
+        <v>200</v>
+      </c>
+      <c r="J10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -2794,8 +2887,14 @@
       <c r="D11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <v>150</v>
+      </c>
+      <c r="G11">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2808,8 +2907,17 @@
       <c r="D12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12">
+        <v>150</v>
+      </c>
+      <c r="G12">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -2822,8 +2930,17 @@
       <c r="D13" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13">
+        <v>150</v>
+      </c>
+      <c r="G13">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -2837,7 +2954,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -2851,7 +2968,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -2864,8 +2981,17 @@
       <c r="D16" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16">
+        <v>350</v>
+      </c>
+      <c r="G16">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -2875,8 +3001,14 @@
       <c r="D17" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>150</v>
+      </c>
+      <c r="G17">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -2889,8 +3021,17 @@
       <c r="D18" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18">
+        <v>150</v>
+      </c>
+      <c r="G18">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -2903,8 +3044,17 @@
       <c r="D19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19">
+        <v>150</v>
+      </c>
+      <c r="G19">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -2914,8 +3064,14 @@
       <c r="D20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F20">
+        <v>250</v>
+      </c>
+      <c r="G20">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -2928,8 +3084,17 @@
       <c r="D21" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21">
+        <v>250</v>
+      </c>
+      <c r="G21">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -2942,8 +3107,17 @@
       <c r="D22" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22">
+        <v>250</v>
+      </c>
+      <c r="G22">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -2957,7 +3131,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -2971,7 +3145,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -2985,7 +3159,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -2998,8 +3172,17 @@
       <c r="D26" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26">
+        <v>500</v>
+      </c>
+      <c r="G26">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -3013,7 +3196,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -3023,8 +3206,14 @@
       <c r="D28" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F28">
+        <v>250</v>
+      </c>
+      <c r="G28">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -3037,8 +3226,17 @@
       <c r="D29" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29">
+        <v>250</v>
+      </c>
+      <c r="G29">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -3051,8 +3249,17 @@
       <c r="D30" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30">
+        <v>250</v>
+      </c>
+      <c r="G30">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -3065,8 +3272,17 @@
       <c r="D31" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31">
+        <v>300</v>
+      </c>
+      <c r="G31">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -3079,8 +3295,17 @@
       <c r="D32" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32">
+        <v>300</v>
+      </c>
+      <c r="G32">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -3094,7 +3319,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -3108,7 +3333,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -3122,7 +3347,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>46</v>
       </c>
@@ -3136,7 +3361,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -3146,8 +3371,14 @@
       <c r="D37" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F37">
+        <v>300</v>
+      </c>
+      <c r="G37">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -3160,8 +3391,17 @@
       <c r="D38" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38">
+        <v>300</v>
+      </c>
+      <c r="G38">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -3174,8 +3414,17 @@
       <c r="D39" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39">
+        <v>500</v>
+      </c>
+      <c r="G39">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -3188,8 +3437,17 @@
       <c r="D40" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40">
+        <v>500</v>
+      </c>
+      <c r="G40">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -3203,7 +3461,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -3217,7 +3475,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -3230,8 +3488,17 @@
       <c r="D43" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43">
+        <v>1000</v>
+      </c>
+      <c r="G43">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>54</v>
       </c>
@@ -3242,7 +3509,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>55</v>
       </c>
@@ -3253,7 +3520,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -3264,7 +3531,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -3275,7 +3542,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -3459,7 +3726,7 @@
         <v>4548736150720</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>76</v>
       </c>
@@ -3467,7 +3734,7 @@
         <v>4548736150614</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>77</v>
       </c>
@@ -3481,7 +3748,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>79</v>
       </c>
@@ -3489,7 +3756,7 @@
         <v>4548736150881</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>80</v>
       </c>
@@ -3497,7 +3764,7 @@
         <v>4548736150683</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>81</v>
       </c>
@@ -3505,7 +3772,7 @@
         <v>4548736150591</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>82</v>
       </c>
@@ -3519,7 +3786,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>83</v>
       </c>
@@ -3527,7 +3794,7 @@
         <v>4548736150843</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>84</v>
       </c>
@@ -3535,7 +3802,7 @@
         <v>4548736150805</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>85</v>
       </c>
@@ -3543,7 +3810,7 @@
         <v>4548736150645</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>86</v>
       </c>
@@ -3551,7 +3818,7 @@
         <v>4548736150577</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>87</v>
       </c>
@@ -3564,8 +3831,17 @@
       <c r="D75" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E75" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75">
+        <v>1000</v>
+      </c>
+      <c r="G75">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>88</v>
       </c>
@@ -3579,7 +3855,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>89</v>
       </c>
@@ -3587,7 +3863,7 @@
         <v>4548736150782</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>90</v>
       </c>
@@ -3595,7 +3871,7 @@
         <v>4548736150768</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>91</v>
       </c>
@@ -3609,7 +3885,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>93</v>
       </c>
@@ -3623,7 +3899,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>94</v>
       </c>
@@ -3637,7 +3913,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>95</v>
       </c>
@@ -3650,8 +3926,11 @@
       <c r="D82" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E82" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>96</v>
       </c>
@@ -3665,7 +3944,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>97</v>
       </c>
@@ -3678,8 +3957,11 @@
       <c r="D84" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E84" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>98</v>
       </c>
@@ -3692,8 +3974,11 @@
       <c r="D85" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E85" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>99</v>
       </c>
@@ -3706,8 +3991,11 @@
       <c r="D86" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E86" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>100</v>
       </c>
@@ -3720,8 +4008,11 @@
       <c r="D87" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E87" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>101</v>
       </c>
@@ -3735,7 +4026,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>102</v>
       </c>
@@ -3749,7 +4040,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>103</v>
       </c>
@@ -3763,7 +4054,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>104</v>
       </c>
@@ -3777,7 +4068,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>105</v>
       </c>
@@ -3790,8 +4081,11 @@
       <c r="D92" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E92" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>106</v>
       </c>
@@ -3805,7 +4099,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>107</v>
       </c>
@@ -3819,7 +4113,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>108</v>
       </c>
@@ -3833,7 +4127,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>109</v>
       </c>
@@ -7784,6 +8078,11 @@
       </c>
       <c r="B570" s="1">
         <v>4548736100688</v>
+      </c>
+    </row>
+    <row r="579" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K579" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
